--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>Insertion des plans</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
     <col min="2" max="33" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -474,7 +474,7 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
     </row>
-    <row r="3" spans="1:35" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4">
         <v>42306</v>
@@ -525,7 +525,7 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,11 +577,8 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-      <c r="AI4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -595,9 +592,15 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -623,11 +626,8 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AI5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -685,9 +685,15 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -711,7 +717,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -758,7 +764,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -770,11 +776,21 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -793,7 +809,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -840,7 +856,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -857,8 +873,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -875,7 +895,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -916,7 +936,7 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -935,12 +955,24 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
@@ -951,7 +983,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1028,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1021,17 +1053,25 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1101,11 +1141,21 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
